--- a/biology/Botanique/Astracantha/Astracantha.xlsx
+++ b/biology/Botanique/Astracantha/Astracantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astracantha est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, à répartition pantropicale, qui comprend environ 250 espèces acceptées[2]. Certains auteurs considèrent que ce genre, très proche du genre Astragalus, doit être inclus dans ce dernier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astracantha est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, à répartition pantropicale, qui comprend environ 250 espèces acceptées. Certains auteurs considèrent que ce genre, très proche du genre Astragalus, doit être inclus dans ce dernier.
 Ce sont des arbustes épineux. Une vingtaine d'espèces produisent de la gomme adragante.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles des Astracantha portent tout d'abord des folioles, qui tombent et ne laissent que le rachis rigide, acéré et persistant, qui devient alors une épine.
 </t>
@@ -543,11 +557,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le botaniste allemand Dieter Podlech a décrit les Astracantha en 1983[3], regroupant en un genre distinct certaines astragales épineuses du Moyen-Orient en se basant sur l'anatomie de l'épine. Cette séparation en deux genres a été abandonnée en 1997, à la suite des travaux de S. Zarre et D. Podlech, et les Astracantha sont de nouveau incluses dans le genre Astragalus[4].
-Liste d'espèces
-Selon The Plant List            (20 décembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le botaniste allemand Dieter Podlech a décrit les Astracantha en 1983, regroupant en un genre distinct certaines astragales épineuses du Moyen-Orient en se basant sur l'anatomie de l'épine. Cette séparation en deux genres a été abandonnée en 1997, à la suite des travaux de S. Zarre et D. Podlech, et les Astracantha sont de nouveau incluses dans le genre Astragalus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astracantha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astracantha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (20 décembre 2018) :
 Astracantha acetabulosa (C.C.Towns.) Podlech
 Astracantha acicularis (Bunge) Podl.
 Astracantha acmophylla (Bunge) Podlech
